--- a/nba/Excel/informacoes_eventos.xlsx
+++ b/nba/Excel/informacoes_eventos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,100 +441,168 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers vs Atlanta Hawks</t>
+          <t>Charlotte Hornets vs Indiana Pacers</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>09-02-2024</t>
+          <t>12-02-2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Filadélfia</t>
+          <t>Charlotte</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Boston Celtics vs Washington Wizards</t>
+          <t>Cleveland Cavaliers vs Philadelphia 76ers</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>09-02-2024</t>
+          <t>12-02-2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Cleveland</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Toronto Raptors vs Houston Rockets</t>
+          <t>Atlanta Hawks vs Chicago Bulls</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>09-02-2024</t>
+          <t>12-02-2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Atlanta</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Milwaukee Bucks vs Charlotte Hornets</t>
+          <t>Toronto Raptors vs San Antonio Spurs</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>09-02-2024</t>
+          <t>12-02-2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Milwaukee</t>
+          <t>Toronto</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sacramento Kings vs Denver Nuggets</t>
+          <t>Houston Rockets vs New York Knicks</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>09-02-2024</t>
+          <t>12-02-2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sacramento</t>
+          <t>Houston</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers vs New Orleans Pelicans</t>
+          <t>Memphis Grizzlies vs New Orleans Pelicans</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>09-02-2024</t>
+          <t>12-02-2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks vs Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12-02-2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks vs Washington Wizards</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>12-02-2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Utah Jazz vs Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12-02-2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Salt Lake City</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LA Clippers vs Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12-02-2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Los Angeles</t>
         </is>

--- a/nba/Excel/informacoes_eventos.xlsx
+++ b/nba/Excel/informacoes_eventos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jogos de Hoje" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Jogos de Hoje" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Charlotte Hornets vs Indiana Pacers</t>
+          <t>Charlotte Hornets vs Atlanta Hawks</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>14-02-2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -458,153 +458,204 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers vs Philadelphia 76ers</t>
+          <t>Orlando Magic vs New York Knicks</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>14-02-2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>Orlando</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Atlanta Hawks vs Chicago Bulls</t>
+          <t>Philadelphia 76ers vs Miami Heat</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>14-02-2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Filadélfia</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Toronto Raptors vs San Antonio Spurs</t>
+          <t>Boston Celtics vs Brooklyn Nets</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>14-02-2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Boston</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Houston Rockets vs New York Knicks</t>
+          <t>Cleveland Cavaliers vs Chicago Bulls</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>14-02-2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Cleveland</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies vs New Orleans Pelicans</t>
+          <t>Toronto Raptors vs Indiana Pacers</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>14-02-2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>Toronto</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Milwaukee Bucks vs Denver Nuggets</t>
+          <t>Memphis Grizzlies vs Houston Rockets</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>14-02-2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Milwaukee</t>
+          <t>Memphis</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dallas Mavericks vs Washington Wizards</t>
+          <t>New Orleans Pelicans vs Washington Wizards</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>14-02-2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>New Orleans</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Utah Jazz vs Golden State Warriors</t>
+          <t>Dallas Mavericks vs San Antonio Spurs</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>14-02-2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Salt Lake City</t>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LA Clippers vs Minnesota Timberwolves</t>
+          <t>Denver Nuggets vs Sacramento Kings</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>14-02-2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Denver</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Phoenix Suns vs Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>14-02-2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Utah Jazz vs Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>14-02-2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Salt Lake City</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Golden State Warriors vs LA Clippers</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>14-02-2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
         </is>
       </c>
     </row>

--- a/nba/Excel/informacoes_eventos.xlsx
+++ b/nba/Excel/informacoes_eventos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,227 +438,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Charlotte Hornets vs Atlanta Hawks</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Charlotte</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Orlando Magic vs New York Knicks</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Orlando</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Philadelphia 76ers vs Miami Heat</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Filadélfia</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Boston Celtics vs Brooklyn Nets</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Boston</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Cleveland Cavaliers vs Chicago Bulls</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Cleveland</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Toronto Raptors vs Indiana Pacers</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Toronto</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Memphis Grizzlies vs Houston Rockets</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Memphis</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>New Orleans Pelicans vs Washington Wizards</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>New Orleans</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Dallas Mavericks vs San Antonio Spurs</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Dallas</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Denver Nuggets vs Sacramento Kings</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Denver</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Phoenix Suns vs Detroit Pistons</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Phoenix</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Utah Jazz vs Los Angeles Lakers</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Salt Lake City</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Golden State Warriors vs LA Clippers</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>14-02-2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>San Francisco</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/nba/Excel/informacoes_eventos.xlsx
+++ b/nba/Excel/informacoes_eventos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +438,176 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks vs Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>23-02-2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers vs Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>23-02-2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Filadélfia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Houston Rockets vs Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>23-02-2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies vs LA Clippers</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>23-02-2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder vs Washington Wizards</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>23-02-2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Oklahoma City</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans vs Miami Heat</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>23-02-2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>New Orleans</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves vs Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>23-02-2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Minneapolis</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Golden State Warriors vs Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>23-02-2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers vs Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>23-02-2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers vs San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>23-02-2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/nba/Excel/informacoes_eventos.xlsx
+++ b/nba/Excel/informacoes_eventos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,170 +441,102 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Atlanta Hawks vs Toronto Raptors</t>
+          <t>Charlotte Hornets vs Phoenix Suns</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23-02-2024</t>
+          <t>15-03-2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Charlotte</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers vs Cleveland Cavaliers</t>
+          <t>Detroit Pistons vs Miami Heat</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23-02-2024</t>
+          <t>15-03-2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Filadélfia</t>
+          <t>Detroit</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Houston Rockets vs Phoenix Suns</t>
+          <t>Toronto Raptors vs Orlando Magic</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23-02-2024</t>
+          <t>15-03-2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Toronto</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies vs LA Clippers</t>
+          <t>New Orleans Pelicans vs LA Clippers</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23-02-2024</t>
+          <t>15-03-2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>New Orleans</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder vs Washington Wizards</t>
+          <t>San Antonio Spurs vs Denver Nuggets</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23-02-2024</t>
+          <t>15-03-2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Austin</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans vs Miami Heat</t>
+          <t>Utah Jazz vs Atlanta Hawks</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23-02-2024</t>
+          <t>15-03-2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>New Orleans</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Minnesota Timberwolves vs Milwaukee Bucks</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>23-02-2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Minneapolis</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Golden State Warriors vs Charlotte Hornets</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>23-02-2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>San Francisco</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Portland Trail Blazers vs Denver Nuggets</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>23-02-2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portland</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Los Angeles Lakers vs San Antonio Spurs</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>23-02-2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Los Angeles</t>
+          <t>Salt Lake City</t>
         </is>
       </c>
     </row>

--- a/nba/Excel/informacoes_eventos.xlsx
+++ b/nba/Excel/informacoes_eventos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,102 +441,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Charlotte Hornets vs Phoenix Suns</t>
+          <t>Indiana Pacers vs Milwaukee Bucks</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>26-04-2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Indianápolis</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Detroit Pistons vs Miami Heat</t>
+          <t>Dallas Mavericks vs LA Clippers</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>26-04-2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Toronto Raptors vs Orlando Magic</t>
+          <t>Phoenix Suns vs Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>26-04-2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Toronto</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>New Orleans Pelicans vs LA Clippers</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>15-03-2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>New Orleans</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>San Antonio Spurs vs Denver Nuggets</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>15-03-2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Austin</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Utah Jazz vs Atlanta Hawks</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>15-03-2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Salt Lake City</t>
+          <t>Phoenix</t>
         </is>
       </c>
     </row>

--- a/nba/Excel/informacoes_eventos.xlsx
+++ b/nba/Excel/informacoes_eventos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,51 +441,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Indiana Pacers vs Milwaukee Bucks</t>
+          <t>New York Knicks vs Indiana Pacers</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>26-04-2024</t>
+          <t>14-05-2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Indianápolis</t>
+          <t>Nova York</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dallas Mavericks vs LA Clippers</t>
+          <t>Denver Nuggets vs Minnesota Timberwolves</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26-04-2024</t>
+          <t>14-05-2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dallas</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Phoenix Suns vs Minnesota Timberwolves</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>26-04-2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Phoenix</t>
+          <t>Denver</t>
         </is>
       </c>
     </row>
